--- a/data/trans_dic/P22$mutuaSPriv-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.003418765556162889</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.007032741640200994</v>
+        <v>0.007032741640200996</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.008399775382238321</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.004677809516726795</v>
+        <v>0.004304916229484662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007868531299108623</v>
+        <v>0.008655692535552305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001640252432191441</v>
+        <v>0.001922827294960895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00117743372100035</v>
+        <v>0.001171941061721695</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002150271767989264</v>
+        <v>0.002030696483363739</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.005093481402239843</v>
+        <v>0.004642520225268996</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0008857495437961083</v>
+        <v>0.000888939370803709</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.002208308224214777</v>
+        <v>0.002239007119514441</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004728173849822252</v>
+        <v>0.00433363948222422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008168050231424849</v>
+        <v>0.007980975560460448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001956485192818104</v>
+        <v>0.002119395828898144</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.00233287433906007</v>
+        <v>0.002838914997047394</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02872181929559232</v>
+        <v>0.02526022432410546</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02544987665844325</v>
+        <v>0.02621104318170526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01112796520528744</v>
+        <v>0.01162538721974365</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01437465317644892</v>
+        <v>0.01290421802548268</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01246549902772821</v>
+        <v>0.01248619893266042</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01998558699411726</v>
+        <v>0.02108682574181359</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.00863150502885264</v>
+        <v>0.008358890983090082</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01836035944867152</v>
+        <v>0.01715646073591694</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0152277069160953</v>
+        <v>0.01483375910331842</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01919833608749159</v>
+        <v>0.01896971954137084</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.007585100421359741</v>
+        <v>0.008213036117963248</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0117843311433691</v>
+        <v>0.01206499225549794</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.01455649196315593</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.006571800422323219</v>
+        <v>0.006571800422323218</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004413212729192857</v>
+        <v>0.004098430996065051</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005254525989844664</v>
+        <v>0.005147543351219782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009060252685159758</v>
+        <v>0.008936424955604183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002094276361982981</v>
+        <v>0.002019388096104234</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008626627864340588</v>
+        <v>0.009212222381634789</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01012332685489294</v>
+        <v>0.009222335491003243</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006939077989569794</v>
+        <v>0.006588911106977064</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003936140860268269</v>
+        <v>0.003802180195569165</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.007723626576648148</v>
+        <v>0.007624922195295255</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009492100419332183</v>
+        <v>0.009567060991062439</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009487092117420859</v>
+        <v>0.009892132499177708</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.003884810188858685</v>
+        <v>0.003930421921013799</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01664365246744217</v>
+        <v>0.01589588218184007</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02052338791498185</v>
+        <v>0.02060656490727542</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02748820483083276</v>
+        <v>0.0272921405010008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01263922636963729</v>
+        <v>0.01194314794743768</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02360131140270947</v>
+        <v>0.02474146030091074</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02705674135377342</v>
+        <v>0.02711846785414409</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02231020041286809</v>
+        <v>0.02242625167822515</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01325063191844984</v>
+        <v>0.01305737209001478</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0173259495080136</v>
+        <v>0.01733419607416225</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02100285753984254</v>
+        <v>0.02075908983133989</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02153203352926209</v>
+        <v>0.0210833586334754</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01095679123848494</v>
+        <v>0.0103929281532864</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03295984322738937</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.02761020101874504</v>
+        <v>0.02761020101874505</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02562547010379344</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01861383869387355</v>
+        <v>0.01825460070295961</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01300159855451132</v>
+        <v>0.01426307696736333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01875489402278468</v>
+        <v>0.01953972404676408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01636144756258189</v>
+        <v>0.01733394773071198</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01569067930330188</v>
+        <v>0.01538531983469705</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00808306698209035</v>
+        <v>0.00709618291214649</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02161076998592436</v>
+        <v>0.0208116750415838</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02006457375610323</v>
+        <v>0.01978257042939515</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01969809423602011</v>
+        <v>0.01935034514931474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01252043197201302</v>
+        <v>0.01237558337454239</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02343061734582435</v>
+        <v>0.0234257719478415</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02028629364331358</v>
+        <v>0.02044760621232857</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03856102005979744</v>
+        <v>0.03850338668183109</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03529155947362585</v>
+        <v>0.0365848647747781</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04454247129275792</v>
+        <v>0.04460664528248327</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04077007230553701</v>
+        <v>0.04103428446555177</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03449408072001184</v>
+        <v>0.03513872252030473</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02399636297518629</v>
+        <v>0.0232787766650379</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04945396882098001</v>
+        <v>0.04681601170440967</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03852932627545422</v>
+        <v>0.0380278232989025</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03367091582478158</v>
+        <v>0.03378905961987359</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02639601107300522</v>
+        <v>0.02556155391474525</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04238548259620711</v>
+        <v>0.04185293053508253</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03509831805751715</v>
+        <v>0.03478218181340274</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.04207406785509769</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06266184054539692</v>
+        <v>0.0626618405453969</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03220082772205562</v>
+        <v>0.03243419582646359</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03561487722045992</v>
+        <v>0.03819619102427991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03055650713564262</v>
+        <v>0.03117837036953542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05117543393073427</v>
+        <v>0.05140914669278226</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04474391494520186</v>
+        <v>0.0459508903759338</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03532652827434234</v>
+        <v>0.03267430705953266</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02044587170573781</v>
+        <v>0.02053716992243447</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0454485558552363</v>
+        <v>0.04417962324971802</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04295067814659687</v>
+        <v>0.04371800491361323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04120554206282192</v>
+        <v>0.04137134690335823</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03006561983042015</v>
+        <v>0.02976450217839502</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05222835419180728</v>
+        <v>0.05237238890157454</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07123895417459944</v>
+        <v>0.07485068437718265</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08223124892285709</v>
+        <v>0.08305072660330361</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07199963260255003</v>
+        <v>0.07115318073055424</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08676893319887355</v>
+        <v>0.08983768404376861</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1029117243674652</v>
+        <v>0.1049881832474819</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0865992788377474</v>
+        <v>0.08189294800590578</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05750813528301169</v>
+        <v>0.05534209441407472</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07222253456533757</v>
+        <v>0.07264267678212011</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07901675820961628</v>
+        <v>0.07830387606312397</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07508242826968833</v>
+        <v>0.07440656071011791</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05785478226464971</v>
+        <v>0.05630207487768716</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07546276532773423</v>
+        <v>0.0760121228455035</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0169730247572275</v>
+        <v>0.01660284103301088</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01694397694921864</v>
+        <v>0.01702968659025274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01618776263652725</v>
+        <v>0.01625709556161122</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02329743583405344</v>
+        <v>0.02282951371601488</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01629979186538845</v>
+        <v>0.01648409281842363</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01450262072208526</v>
+        <v>0.01453613218184087</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01271875631537644</v>
+        <v>0.01286370357623242</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02091703421541891</v>
+        <v>0.0212446311621464</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01749361417469224</v>
+        <v>0.01781100896795753</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01721278743164186</v>
+        <v>0.01692358610051593</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0156719714307199</v>
+        <v>0.01560451248535374</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02309018852264976</v>
+        <v>0.02331234663012783</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02744079680297094</v>
+        <v>0.02723513618170805</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02899821002014455</v>
+        <v>0.0281187174447312</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02700128247710798</v>
+        <v>0.02676171101958117</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03594200084101505</v>
+        <v>0.03579385384761968</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02619632911979462</v>
+        <v>0.02623794962192251</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02429688938149106</v>
+        <v>0.02483938313462048</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02228254427427895</v>
+        <v>0.02200597946092761</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03045027047547467</v>
+        <v>0.03084582883195041</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02481707716325935</v>
+        <v>0.02528841945459315</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02477315658340679</v>
+        <v>0.02438453916100515</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02225104012511372</v>
+        <v>0.02244330008578019</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03089314715526717</v>
+        <v>0.03157068174649453</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2729</v>
+        <v>2511</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>8214</v>
+        <v>9036</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1849</v>
+        <v>2167</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1983</v>
+        <v>1873</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5704</v>
+        <v>5199</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1377</v>
+        <v>1396</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7119</v>
+        <v>6525</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17675</v>
+        <v>17270</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4661</v>
+        <v>5049</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2618</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16754</v>
+        <v>14735</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26568</v>
+        <v>27363</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12542</v>
+        <v>13103</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7169</v>
+        <v>6436</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11497</v>
+        <v>11516</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22382</v>
+        <v>23616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10833</v>
+        <v>10491</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11449</v>
+        <v>10698</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22928</v>
+        <v>22335</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>41543</v>
+        <v>41048</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18068</v>
+        <v>19564</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13226</v>
+        <v>13541</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4752</v>
+        <v>4413</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5129</v>
+        <v>5024</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8198</v>
+        <v>8086</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2011</v>
+        <v>1939</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9113</v>
+        <v>9731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11078</v>
+        <v>10092</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6975</v>
+        <v>6623</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4392</v>
+        <v>4243</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>16475</v>
+        <v>16265</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19652</v>
+        <v>19807</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18121</v>
+        <v>18894</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8065</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17921</v>
+        <v>17116</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20033</v>
+        <v>20114</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24873</v>
+        <v>24695</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12135</v>
+        <v>11467</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>24931</v>
+        <v>26136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>29607</v>
+        <v>29675</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22426</v>
+        <v>22543</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14786</v>
+        <v>14570</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>36958</v>
+        <v>36976</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>43483</v>
+        <v>42979</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>41127</v>
+        <v>40270</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>22746</v>
+        <v>21576</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20822</v>
+        <v>20420</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11508</v>
+        <v>12624</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15450</v>
+        <v>16096</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17122</v>
+        <v>18140</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15582</v>
+        <v>15279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7079</v>
+        <v>6215</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16663</v>
+        <v>16047</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21020</v>
+        <v>20725</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>41597</v>
+        <v>40863</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22047</v>
+        <v>21792</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>37368</v>
+        <v>37360</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>42482</v>
+        <v>42820</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43136</v>
+        <v>43072</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31237</v>
+        <v>32382</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36692</v>
+        <v>36745</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42665</v>
+        <v>42942</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34256</v>
+        <v>34896</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21016</v>
+        <v>20387</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>38132</v>
+        <v>36098</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40365</v>
+        <v>39840</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>71104</v>
+        <v>71354</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>46481</v>
+        <v>45012</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>67597</v>
+        <v>66748</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>73500</v>
+        <v>72838</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14352</v>
+        <v>14456</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17915</v>
+        <v>19214</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15483</v>
+        <v>15798</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>49944</v>
+        <v>50172</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15265</v>
+        <v>15677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15994</v>
+        <v>14793</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10012</v>
+        <v>10057</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>41248</v>
+        <v>40096</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>33796</v>
+        <v>34400</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>39383</v>
+        <v>39541</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>29957</v>
+        <v>29657</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>98372</v>
+        <v>98644</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31751</v>
+        <v>33361</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41364</v>
+        <v>41776</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36482</v>
+        <v>36053</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>84680</v>
+        <v>87675</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>35109</v>
+        <v>35818</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>39207</v>
+        <v>37076</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28162</v>
+        <v>27101</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>65547</v>
+        <v>65929</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>62175</v>
+        <v>61614</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>71761</v>
+        <v>71115</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>57646</v>
+        <v>56099</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>142134</v>
+        <v>143169</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>54728</v>
+        <v>53535</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>57748</v>
+        <v>58040</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>54429</v>
+        <v>54662</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>81105</v>
+        <v>79476</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>54000</v>
+        <v>54611</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>51379</v>
+        <v>51497</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>44783</v>
+        <v>45293</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>77281</v>
+        <v>78491</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>114362</v>
+        <v>116437</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>119644</v>
+        <v>117634</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>107876</v>
+        <v>107411</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>165694</v>
+        <v>167288</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>88481</v>
+        <v>87818</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>98831</v>
+        <v>95833</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>90788</v>
+        <v>89983</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>125124</v>
+        <v>124609</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>86787</v>
+        <v>86925</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>86077</v>
+        <v>87999</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>78457</v>
+        <v>77483</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>112503</v>
+        <v>113964</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>162238</v>
+        <v>165320</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>172195</v>
+        <v>169494</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>153162</v>
+        <v>154485</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>221687</v>
+        <v>226549</v>
       </c>
     </row>
     <row r="24">
